--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc5.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc5.xlsx
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual é o limite máximo de extensão da Zona Econômica Exclusiva (ZEE)?</t>
+          <t>Qual é a extensão máxima permitida para a zona econômica exclusiva?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Não se estenderá além de 200 milhas marítimas das linhas de base.</t>
+          <t>A zona econômica exclusiva não se estenderá além de 200 milhas marítimas das linhas de base, conforme o Artigo 57.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Na ZEE, quem possui o direito exclusivo de construir e regulamentar ilhas artificiais?</t>
+          <t>Quais liberdades os outros Estados gozam na zona econômica exclusiva de um Estado costeiro?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>O Estado costeiro tem o direito exclusivo de construir, autorizar e regulamentar tais ilhas.</t>
+          <t>Gozam das liberdades de navegação, sobrevoo e colocação de cabos e dutos submarinos, conforme o Artigo 58, parágrafo 1.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quais liberdades os outros Estados (costeiros ou sem litoral) gozam na ZEE de um Estado costeiro?</t>
+          <t>Como devem ser solucionados os conflitos de interesses na zona econômica exclusiva não previstos na Convenção?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Liberdades de navegação, sobrevoo e colocação de cabos e dutos submarinos.</t>
+          <t>Devem ser solucionados numa base de equidade e à luz de todas as circunstâncias pertinentes, conforme o Artigo 59.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág. 16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é a extensão máxima permitida para as zonas de segurança em volta de ilhas artificiais na ZEE, salvo exceção?</t>
+          <t>Qual é a extensão máxima das zonas de segurança ao redor de ilhas artificiais na zona econômica exclusiva?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Não excederão uma distância de 500 metros em volta das ilhas ou instalações.</t>
+          <t>Não excederão uma distância de 500 metros em volta das ilhas artificiais, instalações ou estruturas, conforme o Artigo 60, parágrafo 5.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A quem cabe fixar as capturas permissíveis dos recursos vivos na Zona Econômica Exclusiva?</t>
+          <t>As ilhas artificiais e estruturas na zona econômica exclusiva possuem mar territorial próprio?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ao Estado costeiro.</t>
+          <t>Não, elas não têm o estatuto jurídico de ilhas e não têm mar territorial próprio, conforme o Artigo 60, parágrafo 8.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qual é o objetivo das medidas de conservação e gestão dos recursos vivos na ZEE em relação ao nível das populações?</t>
+          <t>Quem é responsável por fixar as capturas permissíveis dos recursos vivos na zona econômica exclusiva?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Manter ou restabelecer as populações em níveis que possam produzir o máximo rendimento constante (sustentável).</t>
+          <t>O Estado costeiro fixará as capturas permissíveis, conforme o Artigo 61, parágrafo 1.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág. 17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O que o Estado costeiro deve fazer se não tiver capacidade para efetuar a totalidade da captura permissível na ZEE?</t>
+          <t>O que o Estado costeiro deve fazer se não tiver capacidade para efetuar a totalidade da captura permissível?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Deve dar a outros Estados acesso ao excedente da captura, mediante acordos.</t>
+          <t>Deve dar a outros Estados acesso ao excedente desta captura, conforme o Artigo 62, parágrafo 2.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Os nacionais de outros Estados que pescam na ZEE estão sujeitos a quais regulamentos?</t>
+          <t>O Estado costeiro pode cobrar taxas para conceder licenças de pesca a estrangeiros na ZEE?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Devem cumprir as medidas de conservação e as leis e regulamentos estabelecidos pelo Estado costeiro.</t>
+          <t>Sim, as leis podem incluir o pagamento de taxas e outros encargos, conforme o Artigo 62, parágrafo 4, alínea 'a'.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode exigir pagamento de taxas ou transferência de tecnologia para conceder licenças de pesca na ZEE?</t>
+          <t>Qual é a obrigação dos Estados em relação às espécies altamente migratórias?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sim, as leis do Estado costeiro podem incluir pagamento de taxas e requisitos de transferência de tecnologia ou formação de pessoal.</t>
+          <t>Devem cooperar diretamente ou por organizações internacionais para assegurar a conservação e utilização ótima, conforme o Artigo 64, parágrafo 1.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág. 18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode aplicar regras mais estritas que a Convenção para a proteção de mamíferos marinhos na ZEE?</t>
+          <t>A Convenção impede o Estado costeiro de proibir ou limitar estritamente o aproveitamento de mamíferos marinhos?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sim, a Convenção não restringe o direito de proibir ou limitar o aproveitamento de mamíferos marinhos de maneira mais estrita.</t>
+          <t>Não, o Estado costeiro pode regulamentar de maneira mais estrita que a prevista na Parte V, conforme o Artigo 65.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Qual Estado tem a responsabilidade primordial pelas populações de peixes anádromos (que sobem os rios para desovar)?</t>
+          <t>Qual Estado tem responsabilidade primordial sobre as populações de peixes anádromos?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>O Estado em cujos rios se originem as populações.</t>
+          <t>Os Estados em cujos rios se originem essas populações, conforme o Artigo 66, parágrafo 1.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Como deve ocorrer a conservação de espécies altamente migratórias listadas no Anexo I?</t>
+          <t>Onde deve ser efetuada a captura das espécies catádromas?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Através da cooperação entre o Estado costeiro e demais Estados, diretamente ou por organizações internacionais.</t>
+          <t>Unicamente nas águas situadas dentro dos limites exteriores das zonas econômicas exclusivas, conforme o Artigo 67, parágrafo 2.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág. 19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>As disposições da Parte V sobre a ZEE aplicam-se às espécies sedentárias do leito do mar?</t>
+          <t>Os Estados sem litoral têm direito a participar do aproveitamento dos recursos vivos da ZEE?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Não, a Parte V não se aplica às espécies sedentárias (que seguem o regime da plataforma continental).</t>
+          <t>Sim, têm direito a participar, numa base equitativa, no aproveitamento de uma parte apropriada dos excedentes, conforme o Artigo 69, parágrafo 1.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -837,23 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Que direito possuem os Estados sem litoral em relação à pesca na ZEE da mesma região?</t>
+          <t>Onde os Estados desenvolvidos sem litoral podem participar do aproveitamento de recursos vivos?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Direito a participar, em base equitativa, no aproveitamento de uma parte apropriada dos excedentes dos recursos vivos.</t>
+          <t>Só nas zonas econômicas exclusivas dos Estados costeiros desenvolvidos da mesma sub-região ou região, conforme o Artigo 69, parágrafo 4.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -865,23 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Os Estados desenvolvidos sem litoral podem participar dos recursos da ZEE de qualquer Estado da região?</t>
+          <t>O que define um Estado "geograficamente desfavorecido" segundo a Convenção?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Não, apenas nas zonas econômicas exclusivas dos Estados costeiros desenvolvidos da mesma região.</t>
+          <t>Estados cuja situação geográfica os torne dependentes dos recursos de outros Estados da região para abastecimento de peixe, ou que não possam reivindicar ZEE própria, conforme o Artigo 70, parágrafo 2.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág. 20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -893,23 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Como são definidos os "Estados geograficamente desfavorecidos" para fins de acesso à ZEE?</t>
+          <t>Os direitos de exploração conferidos aos Estados sem litoral ou geograficamente desfavorecidos podem ser transferidos a terceiros?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Estados que dependem dos recursos da ZEE de vizinhos para fins nutricionais ou que não podem reivindicar ZEE própria.</t>
+          <t>Não serão transferidos a terceiros Estados ou a seus nacionais, a não ser que os Estados interessados acordem de outro modo, conforme o Artigo 72, parágrafo 1.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Os direitos de acesso aos recursos vivos conferidos a Estados sem litoral ou desfavorecidos podem ser transferidos a terceiros?</t>
+          <t>O que deve ocorrer com embarcações estrangeiras apresadas pelo Estado costeiro após prestação de fiança?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Não, não podem ser transferidos a terceiros Estados sem o acordo dos Estados interessados.</t>
+          <t>Devem ser libertadas sem demora logo que prestada uma fiança idônea ou outra garantia, conforme o Artigo 73, parágrafo 2.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -949,23 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Quais tipos de pena o Estado costeiro não pode aplicar por violações de pesca na ZEE, salvo acordo em contrário?</t>
+          <t>O Estado costeiro pode aplicar penas de prisão por violação das leis de pesca na ZEE?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Penas privativas de liberdade (prisão) ou qualquer forma de pena corporal.</t>
+          <t>Não podem incluir penas privativas de liberdade, salvo acordo em contrário dos Estados interessados, conforme o Artigo 73, parágrafo 3.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág. 21</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -977,23 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Qual é o critério fundamental para a delimitação da ZEE entre Estados com costas adjacentes ou frente a frente?</t>
+          <t>Qual é o objetivo do acordo de delimitação da ZEE entre Estados com costas adjacentes?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A delimitação deve ser feita por acordo, visando chegar a uma solução equitativa.</t>
+          <t>Chegar a uma solução equitativa, de conformidade com o direito internacional, conforme o Artigo 74, parágrafo 1.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -1005,23 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O que os Estados devem fazer se não chegarem a um acordo definitivo sobre a delimitação da ZEE num prazo razoável?</t>
+          <t>O que os Estados devem fazer se não chegarem a um acordo de delimitação da ZEE em prazo razoável?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Devem recorrer aos procedimentos de solução de controvérsias previstos na Parte XV da Convenção.</t>
+          <t>Devem recorrer aos procedimentos previstos na parte XV da Convenção, conforme o Artigo 74, parágrafo 2.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Onde o Estado costeiro deve depositar as cartas ou listas de coordenadas geográficas que definem a sua ZEE?</t>
+          <t>Onde o Estado costeiro deve depositar as cartas ou listas de coordenadas da ZEE?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Junto ao Secretário Geral das Nações Unidas.</t>
+          <t>Junto do Secretário Geral das Nações Unidas, conforme o Artigo 75, parágrafo 2.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág. 22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Parte V</t>
+          <t>Parte V - Zona Econômica Exclusiva</t>
         </is>
       </c>
     </row>
